--- a/segunda_estimacion.xlsx
+++ b/segunda_estimacion.xlsx
@@ -371,702 +371,702 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>109.94336246273</v>
+        <v>100.243510642911</v>
       </c>
       <c r="B2" t="n">
-        <v>2.96974174932621</v>
+        <v>2.71946290401922</v>
       </c>
       <c r="C2" t="n">
-        <v>1.93624889467593</v>
+        <v>2.27463965006575</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.993749259183355</v>
+        <v>-0.986566608191512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99.5322454082594</v>
+        <v>109.450823674042</v>
       </c>
       <c r="B3" t="n">
-        <v>3.07076089128957</v>
+        <v>2.70396936031961</v>
       </c>
       <c r="C3" t="n">
-        <v>2.02210583136878</v>
+        <v>2.31146798006777</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.07337401553867</v>
+        <v>-1.06956943255871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85.9196040212049</v>
+        <v>94.0258090151525</v>
       </c>
       <c r="B4" t="n">
-        <v>3.11959367338019</v>
+        <v>3.1457726053501</v>
       </c>
       <c r="C4" t="n">
-        <v>2.08263816616895</v>
+        <v>1.94617913066833</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.00621861195473</v>
+        <v>-0.992306514900581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102.537479076106</v>
+        <v>104.323064734056</v>
       </c>
       <c r="B5" t="n">
-        <v>2.95365724300651</v>
+        <v>2.47621981546854</v>
       </c>
       <c r="C5" t="n">
-        <v>2.03164148399613</v>
+        <v>2.49250635379246</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.02323960644085</v>
+        <v>-1.02533415419256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89.5528354385236</v>
+        <v>101.801532061791</v>
       </c>
       <c r="B6" t="n">
-        <v>3.00854923050377</v>
+        <v>2.73568162193301</v>
       </c>
       <c r="C6" t="n">
-        <v>2.12035932599429</v>
+        <v>2.24092274381578</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.0111793279606</v>
+        <v>-0.99423375953442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91.5601237179349</v>
+        <v>81.3952733082726</v>
       </c>
       <c r="B7" t="n">
-        <v>2.98162382531421</v>
+        <v>3.09617113088729</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0410667873142</v>
+        <v>2.02112452141397</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.969883359327966</v>
+        <v>-0.96832711876167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92.8314808595507</v>
+        <v>111.760542163273</v>
       </c>
       <c r="B8" t="n">
-        <v>2.95069224817726</v>
+        <v>3.15841452034424</v>
       </c>
       <c r="C8" t="n">
-        <v>2.01297842738962</v>
+        <v>1.80170344927556</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.893455471643986</v>
+        <v>-1.08825271614053</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>102.637819399624</v>
+        <v>90.1182101106213</v>
       </c>
       <c r="B9" t="n">
-        <v>2.99486709064757</v>
+        <v>3.20830623362537</v>
       </c>
       <c r="C9" t="n">
-        <v>2.04345342174318</v>
+        <v>1.79377846666066</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.05456176321423</v>
+        <v>-0.949480851700203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99.0277843827817</v>
+        <v>98.0584197630772</v>
       </c>
       <c r="B10" t="n">
-        <v>2.95146500124453</v>
+        <v>2.71688291684534</v>
       </c>
       <c r="C10" t="n">
-        <v>2.03154220091162</v>
+        <v>2.27731864689191</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.01972291542534</v>
+        <v>-0.974254165178571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98.9978653531468</v>
+        <v>114.048017630991</v>
       </c>
       <c r="B11" t="n">
-        <v>3.03976859863748</v>
+        <v>2.66416951310464</v>
       </c>
       <c r="C11" t="n">
-        <v>1.91670708524944</v>
+        <v>2.28393369268803</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.978009853051383</v>
+        <v>-1.08702579937142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88.5816133809144</v>
+        <v>96.3401688842656</v>
       </c>
       <c r="B12" t="n">
-        <v>3.06602115525799</v>
+        <v>2.699519688071</v>
       </c>
       <c r="C12" t="n">
-        <v>2.04591270668701</v>
+        <v>2.20181977639207</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.961096873620236</v>
+        <v>-0.902848371438947</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>92.884161172869</v>
+        <v>92.9098801447479</v>
       </c>
       <c r="B13" t="n">
-        <v>2.98428930365674</v>
+        <v>3.02012803772718</v>
       </c>
       <c r="C13" t="n">
-        <v>2.06297762374807</v>
+        <v>1.9744786065569</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.986224992004164</v>
+        <v>-0.931779392649116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94.2275174891804</v>
+        <v>102.073883668855</v>
       </c>
       <c r="B14" t="n">
-        <v>2.91179201363554</v>
+        <v>3.10073973148866</v>
       </c>
       <c r="C14" t="n">
-        <v>2.01258300576985</v>
+        <v>1.79852970816678</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.892764431689636</v>
+        <v>-0.981630234468139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69.8164989657432</v>
+        <v>93.5322777067966</v>
       </c>
       <c r="B15" t="n">
-        <v>3.06208262844098</v>
+        <v>2.53495348974908</v>
       </c>
       <c r="C15" t="n">
-        <v>2.06898311690482</v>
+        <v>2.42315283195314</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.850233023637515</v>
+        <v>-0.950022428221926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110.100272498846</v>
+        <v>93.0939819675297</v>
       </c>
       <c r="B16" t="n">
-        <v>2.9800157481912</v>
+        <v>2.32021434439634</v>
       </c>
       <c r="C16" t="n">
-        <v>1.92315293848872</v>
+        <v>2.70719911846852</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.01915950927711</v>
+        <v>-0.988620548877923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97.548264374373</v>
+        <v>98.8432870934146</v>
       </c>
       <c r="B17" t="n">
-        <v>2.99220635588393</v>
+        <v>2.9824480006611</v>
       </c>
       <c r="C17" t="n">
-        <v>2.01850330399678</v>
+        <v>2.01586737585189</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.963715960916086</v>
+        <v>-0.968975743051377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106.545451938496</v>
+        <v>96.7434565674171</v>
       </c>
       <c r="B18" t="n">
-        <v>2.90738121470991</v>
+        <v>2.95887131088783</v>
       </c>
       <c r="C18" t="n">
-        <v>1.98621996047569</v>
+        <v>2.09233470293032</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.977839265001705</v>
+        <v>-0.980161907514091</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>109.801522405783</v>
+        <v>89.6652274418834</v>
       </c>
       <c r="B19" t="n">
-        <v>3.04441069004354</v>
+        <v>3.00281692978906</v>
       </c>
       <c r="C19" t="n">
-        <v>1.94137907037814</v>
+        <v>2.03849646857119</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.11076980236545</v>
+        <v>-0.980133548024811</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99.9173984325937</v>
+        <v>94.7090012291679</v>
       </c>
       <c r="B20" t="n">
-        <v>2.97498016160767</v>
+        <v>2.86056201937583</v>
       </c>
       <c r="C20" t="n">
-        <v>1.97631191771544</v>
+        <v>2.14504821907349</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.999553760087628</v>
+        <v>-1.01237136638184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111.192033113158</v>
+        <v>107.96015000349</v>
       </c>
       <c r="B21" t="n">
-        <v>2.95463547056478</v>
+        <v>2.89523611620466</v>
       </c>
       <c r="C21" t="n">
-        <v>1.97579292848209</v>
+        <v>2.07810327307506</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.02727165234548</v>
+        <v>-1.04108442346705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89.3138576754554</v>
+        <v>107.893855758601</v>
       </c>
       <c r="B22" t="n">
-        <v>2.99776661526246</v>
+        <v>2.92846643827272</v>
       </c>
       <c r="C22" t="n">
-        <v>2.10410415469691</v>
+        <v>2.00462551202913</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.00114247722057</v>
+        <v>-0.993846065826365</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>87.6332437669996</v>
+        <v>107.210225157059</v>
       </c>
       <c r="B23" t="n">
-        <v>3.0435113983036</v>
+        <v>2.6761737121384</v>
       </c>
       <c r="C23" t="n">
-        <v>2.02984782710895</v>
+        <v>2.12214483760492</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.987077146569033</v>
+        <v>-0.933436523884351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>100.462633814383</v>
+        <v>101.840707624079</v>
       </c>
       <c r="B24" t="n">
-        <v>2.95514012776329</v>
+        <v>3.1604485467042</v>
       </c>
       <c r="C24" t="n">
-        <v>1.97822379006883</v>
+        <v>1.80479653444055</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.991168428131524</v>
+        <v>-1.00531209321841</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>92.4797930327711</v>
+        <v>104.683301414105</v>
       </c>
       <c r="B25" t="n">
-        <v>2.94661410821526</v>
+        <v>2.48389174145343</v>
       </c>
       <c r="C25" t="n">
-        <v>1.98502674393986</v>
+        <v>2.49551170769868</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.876636781260956</v>
+        <v>-1.05093348510068</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>98.8381354162436</v>
+        <v>108.598999693462</v>
       </c>
       <c r="B26" t="n">
-        <v>3.09287008161607</v>
+        <v>3.06056387421646</v>
       </c>
       <c r="C26" t="n">
-        <v>1.9740586806713</v>
+        <v>1.86877100881179</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.00913174919724</v>
+        <v>-1.01492033446551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>124.648428959198</v>
+        <v>101.034480303182</v>
       </c>
       <c r="B27" t="n">
-        <v>2.97263158621507</v>
+        <v>2.60627607810813</v>
       </c>
       <c r="C27" t="n">
-        <v>1.88553587179584</v>
+        <v>2.35655909736748</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.08659465961443</v>
+        <v>-0.920405150489801</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110.263917852299</v>
+        <v>106.476543255075</v>
       </c>
       <c r="B28" t="n">
-        <v>2.98869345871345</v>
+        <v>3.26697287171508</v>
       </c>
       <c r="C28" t="n">
-        <v>1.95913263044898</v>
+        <v>1.67109832449509</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.01687511228148</v>
+        <v>-1.02454240828709</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>96.2997940579042</v>
+        <v>92.5881265147187</v>
       </c>
       <c r="B29" t="n">
-        <v>3.02173021641657</v>
+        <v>2.88717817042468</v>
       </c>
       <c r="C29" t="n">
-        <v>2.00345210200748</v>
+        <v>2.07544653607368</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.99542862794764</v>
+        <v>-0.890769350771925</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>90.5007796784088</v>
+        <v>112.701957487153</v>
       </c>
       <c r="B30" t="n">
-        <v>2.99756254072678</v>
+        <v>2.34282614632636</v>
       </c>
       <c r="C30" t="n">
-        <v>2.01281363832792</v>
+        <v>2.54958983097146</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.929395773151911</v>
+        <v>-1.02386227989313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>94.7455785636905</v>
+        <v>104.757694555825</v>
       </c>
       <c r="B31" t="n">
-        <v>2.98818025727886</v>
+        <v>2.97592181186201</v>
       </c>
       <c r="C31" t="n">
-        <v>2.05912147185441</v>
+        <v>1.97635958142368</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.06203778236157</v>
+        <v>-1.02430326462697</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110.677125453018</v>
+        <v>83.7144669414351</v>
       </c>
       <c r="B32" t="n">
-        <v>3.01800272439783</v>
+        <v>3.29905028402709</v>
       </c>
       <c r="C32" t="n">
-        <v>1.8719566514084</v>
+        <v>1.72867162516162</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.01509246770477</v>
+        <v>-0.876879843308048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>93.2682310909222</v>
+        <v>107.003535048171</v>
       </c>
       <c r="B33" t="n">
-        <v>2.97369235348316</v>
+        <v>2.57957826735715</v>
       </c>
       <c r="C33" t="n">
-        <v>2.051463176095</v>
+        <v>2.40146923647136</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.927074022464225</v>
+        <v>-1.01313321786641</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>76.6322492618061</v>
+        <v>108.684185283973</v>
       </c>
       <c r="B34" t="n">
-        <v>3.05170253431498</v>
+        <v>2.72528697991156</v>
       </c>
       <c r="C34" t="n">
-        <v>1.9845538313297</v>
+        <v>2.25157239188832</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.835833801369405</v>
+        <v>-1.06553452462322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>113.338732077026</v>
+        <v>88.1330805274203</v>
       </c>
       <c r="B35" t="n">
-        <v>2.98065392711146</v>
+        <v>2.71694145393339</v>
       </c>
       <c r="C35" t="n">
-        <v>1.93374924023387</v>
+        <v>2.34750910513376</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.03500428733885</v>
+        <v>-0.981208849234967</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>114.142231584854</v>
+        <v>90.3630130384363</v>
       </c>
       <c r="B36" t="n">
-        <v>3.03776304108923</v>
+        <v>2.60107973869386</v>
       </c>
       <c r="C36" t="n">
-        <v>1.9959261596647</v>
+        <v>2.48508802542852</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.13451571168686</v>
+        <v>-0.999279383410438</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>102.922542138128</v>
+        <v>96.2424109945694</v>
       </c>
       <c r="B37" t="n">
-        <v>2.97670875227004</v>
+        <v>3.44095553716233</v>
       </c>
       <c r="C37" t="n">
-        <v>2.00074085488451</v>
+        <v>1.62065066414582</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.961828999218506</v>
+        <v>-1.02478458694829</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>118.293032079939</v>
+        <v>90.0943744201572</v>
       </c>
       <c r="B38" t="n">
-        <v>2.87620065605993</v>
+        <v>3.54276874889815</v>
       </c>
       <c r="C38" t="n">
-        <v>2.07000288066093</v>
+        <v>1.48710682587402</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.11729252888283</v>
+        <v>-0.95240068542474</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>103.462785848556</v>
+        <v>104.365323879368</v>
       </c>
       <c r="B39" t="n">
-        <v>3.04601003797007</v>
+        <v>2.81110193639907</v>
       </c>
       <c r="C39" t="n">
-        <v>1.90495552699543</v>
+        <v>2.10977792691084</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.991265630096527</v>
+        <v>-0.921451040398078</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>88.0859569838606</v>
+        <v>102.241169295958</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0996792906434</v>
+        <v>2.93635370904308</v>
       </c>
       <c r="C40" t="n">
-        <v>2.08165487212812</v>
+        <v>2.08390406484086</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.10376264325311</v>
+        <v>-1.04950939839876</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>87.6708580684979</v>
+        <v>99.6513207984619</v>
       </c>
       <c r="B41" t="n">
-        <v>2.91390551909096</v>
+        <v>2.77945743960844</v>
       </c>
       <c r="C41" t="n">
-        <v>2.06215423694222</v>
+        <v>2.31158881351881</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.891312128632357</v>
+        <v>-1.06272838479912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96.8911218242445</v>
+        <v>100.749754137351</v>
       </c>
       <c r="B42" t="n">
-        <v>2.91397933013544</v>
+        <v>2.93416098104312</v>
       </c>
       <c r="C42" t="n">
-        <v>2.00362180285989</v>
+        <v>2.00988530831835</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.903133276239334</v>
+        <v>-0.961316186661694</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>107.466544914243</v>
+        <v>98.9441405740096</v>
       </c>
       <c r="B43" t="n">
-        <v>2.99019535310426</v>
+        <v>2.81272574567047</v>
       </c>
       <c r="C43" t="n">
-        <v>1.96358099646817</v>
+        <v>2.2011032493574</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.03303823136839</v>
+        <v>-1.00733886625473</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>89.6120112686107</v>
+        <v>89.6637026429802</v>
       </c>
       <c r="B44" t="n">
-        <v>3.09315420184714</v>
+        <v>2.92739853142923</v>
       </c>
       <c r="C44" t="n">
-        <v>2.04962975901585</v>
+        <v>2.14409456109993</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.04734563541683</v>
+        <v>-0.96253238869993</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95.2633153831084</v>
+        <v>95.7722206572904</v>
       </c>
       <c r="B45" t="n">
-        <v>3.0403514435551</v>
+        <v>3.0825344824382</v>
       </c>
       <c r="C45" t="n">
-        <v>1.97990413677948</v>
+        <v>1.94967886418108</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.977772372700602</v>
+        <v>-0.963493629201543</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>95.4684949988316</v>
+        <v>91.9175412633406</v>
       </c>
       <c r="B46" t="n">
-        <v>2.99741870182963</v>
+        <v>2.64788528362366</v>
       </c>
       <c r="C46" t="n">
-        <v>1.98723572580182</v>
+        <v>2.37936886554361</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.98604391174144</v>
+        <v>-1.01376738031842</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>106.400173825643</v>
+        <v>105.121680438267</v>
       </c>
       <c r="B47" t="n">
-        <v>2.98166267145091</v>
+        <v>3.28681706325491</v>
       </c>
       <c r="C47" t="n">
-        <v>1.94841343591671</v>
+        <v>1.73222170385865</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.991104099055443</v>
+        <v>-1.08794777725373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104.387146376565</v>
+        <v>106.315212559168</v>
       </c>
       <c r="B48" t="n">
-        <v>3.01140976328377</v>
+        <v>2.46825705430776</v>
       </c>
       <c r="C48" t="n">
-        <v>1.92260391930244</v>
+        <v>2.56309056475373</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.91986784319468</v>
+        <v>-1.04477199100923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>95.0238673578529</v>
+        <v>98.1061684368239</v>
       </c>
       <c r="B49" t="n">
-        <v>2.9483359797002</v>
+        <v>3.74653450555627</v>
       </c>
       <c r="C49" t="n">
-        <v>2.03956252106815</v>
+        <v>1.21116472435844</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.928193753594201</v>
+        <v>-0.935677962649126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>101.995021915555</v>
+        <v>104.492877247983</v>
       </c>
       <c r="B50" t="n">
-        <v>2.9681881156409</v>
+        <v>3.41923864038541</v>
       </c>
       <c r="C50" t="n">
-        <v>1.98559552317451</v>
+        <v>1.59060112684709</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.996708541848124</v>
+        <v>-1.05399568696037</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>116.671812120552</v>
+        <v>110.498878619938</v>
       </c>
       <c r="B51" t="n">
-        <v>2.92170244807422</v>
+        <v>2.63360165258227</v>
       </c>
       <c r="C51" t="n">
-        <v>1.97641400431343</v>
+        <v>2.32321688097858</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.04591801207367</v>
+        <v>-1.01002177022228</v>
       </c>
     </row>
   </sheetData>
